--- a/data/sastra_data.xlsx
+++ b/data/sastra_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rc\review2\generalize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rc\Timetablo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E662612-120D-433D-AAFB-D2A6058321BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029011CB-EE63-40F8-B518-511F7D9D4AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17196" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="315">
   <si>
     <t>6_IT_K, 6_IT_L,6_ICT_M</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>(5, 4)</t>
+  </si>
+  <si>
+    <t>(2, 7), (2, 8), (5, 1), (5, 2)</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5997,7 +6000,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/sastra_data.xlsx
+++ b/data/sastra_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rc\Timetablo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029011CB-EE63-40F8-B518-511F7D9D4AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82116027-E956-4B92-9BAF-0C94CDA2E3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17196" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="17196" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -904,36 +904,6 @@
     <t>LUNCH_FRI_2</t>
   </si>
   <si>
-    <t>4_CSE_E, 4_CSE_C, 6_IT_K, 4_AIDS_H, 4_CSBS_N, 6_AIDS_G, 6_AIDS_F, 6_IT_L, 4_CSE_A, 6_IoTA_J, 4_IT_K, 6_ICT_M, 4_AIDS_F, 4_CSE_B</t>
-  </si>
-  <si>
-    <t>4_IT_L, 6_CSE_B, 6_CSBS_N, 6_CSE_C, 4_CSE_D, 4_ICT_M, 6_CSE_E, 4_CSBT_I, 6_AIDS_H, 6_CSBT_I, 4_IoTA_J, 6_CSE_A, 6_CSE_D, 4_AIDS_G</t>
-  </si>
-  <si>
-    <t>6_CSE_C, 4_AIDS_H, 6_ICT_M, 6_AIDS_H, 4_AIDS_F, 4_CSE_B, 4_CSE_C, 4_IT_K, 4_CSBS_N, 6_IoTA_J, 6_IT_L, 4_IoTA_J, 4_CSE_A, 4_CSE_D</t>
-  </si>
-  <si>
-    <t>6_CSE_B, 6_CSE_D, 4_AIDS_G, 6_AIDS_G, 6_CSE_E, 4_ICT_M, 6_IT_K, 6_CSBS_N, 4_CSBT_I, 6_AIDS_F, 6_CSE_A, 4_IT_L, 6_CSBT_I, 4_CSE_E</t>
-  </si>
-  <si>
-    <t>6_IT_K, 6_CSE_D, 4_IoTA_J, 6_CSE_A, 6_ICT_M, 4_CSE_A, 6_CSBT_I, 4_CSBS_N, 4_CSE_C, 6_AIDS_F, 4_CSE_B, 6_CSE_E, 4_AIDS_H, 4_IT_K</t>
-  </si>
-  <si>
-    <t>6_CSBS_N, 4_CSBT_I, 4_IT_L, 4_ICT_M, 6_AIDS_H, 6_CSE_B, 6_CSE_C, 6_AIDS_G, 4_CSE_E, 6_IT_L, 4_AIDS_F, 4_AIDS_G, 6_IoTA_J, 4_CSE_D</t>
-  </si>
-  <si>
-    <t>4_ICT_M, 4_CSE_B, 4_AIDS_F, 4_AIDS_H, 6_CSE_C, 6_IT_L, 6_IoTA_J, 6_CSE_D, 4_CSE_C, 6_CSE_E, 6_AIDS_G, 4_IT_K, 4_CSBT_I, 6_CSE_A</t>
-  </si>
-  <si>
-    <t>6_CSBS_N, 4_CSE_E, 6_CSE_B, 6_IT_K, 4_IT_L, 4_CSBS_N, 4_AIDS_G, 6_CSBT_I, 6_ICT_M, 4_CSE_A, 6_AIDS_F, 6_AIDS_H, 4_IoTA_J, 4_CSE_D</t>
-  </si>
-  <si>
-    <t>4_CSBT_I, 4_CSE_B, 6_AIDS_G, 6_IoTA_J, 4_IT_L, 4_CSE_C, 6_AIDS_F, 4_AIDS_F, 6_IT_K, 6_CSE_A, 6_CSE_B, 4_AIDS_H, 4_CSE_E, 6_CSE_C</t>
-  </si>
-  <si>
-    <t>6_CSE_D, 6_IT_L, 4_CSBS_N, 6_CSBS_N, 4_IoTA_J, 4_ICT_M, 4_CSE_D, 6_AIDS_H, 4_IT_K, 6_CSBT_I, 6_CSE_E, 4_CSE_A, 4_AIDS_G, 6_ICT_M</t>
-  </si>
-  <si>
     <t>(1, 4)</t>
   </si>
   <si>
@@ -965,6 +935,36 @@
   </si>
   <si>
     <t>(2, 7), (2, 8), (5, 1), (5, 2)</t>
+  </si>
+  <si>
+    <t>4_IT_L, 6_CSE_E, 4_CSE_D, 4_ICT_M, 4_CSE_C, 6_AIDS_H, 4_CSBT_I, 6_CSE_B, 4_CSE_B, 4_IoTA_J, 6_IoTA_J</t>
+  </si>
+  <si>
+    <t>6_IT_L, 6_IT_K, 4_AIDS_G, 6_ICT_M, 6_CSBS_N, 4_AIDS_F, 4_CSE_A, 4_CSE_E, 6_CSE_D, 6_CSE_A, 4_AIDS_H, 4_CSBS_N, 6_CSBT_I, 4_IT_K, 6_AIDS_G, 6_CSE_C, 6_AIDS_F</t>
+  </si>
+  <si>
+    <t>6_IT_K, 4_IT_L, 4_AIDS_G, 6_CSE_E, 4_ICT_M, 4_CSE_A, 4_CSE_E, 6_AIDS_H, 6_CSE_A, 4_AIDS_H, 4_CSBT_I, 6_AIDS_G, 4_CSE_B, 6_IoTA_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6_IT_L, 6_ICT_M, 4_CSE_D, 6_CSBS_N, 4_AIDS_F, 4_CSE_C, 6_CSE_D, 6_CSE_B, 4_CSBS_N, 6_CSBT_I, 4_IT_K, 6_CSE_C, 4_IoTA_J, 6_AIDS_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4_IT_L, 6_CSE_E, 6_CSBS_N, 4_AIDS_F, 4_CSE_A, 6_AIDS_H, 6_CSE_D, 4_AIDS_H, 4_CSBT_I, 6_CSE_B, 4_CSBS_N, 6_AIDS_G, 6_CSE_C, 4_CSE_B, 4_IoTA_J, 6_AIDS_F, 6_IoTA_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6_IT_L, 6_IT_K, 4_AIDS_G, 6_ICT_M, 4_CSE_D, 4_ICT_M, 4_CSE_C, 4_CSE_E, 6_CSE_A, 6_CSBT_I, 4_IT_K</t>
+  </si>
+  <si>
+    <t>6_IT_L, 6_IT_K, 6_ICT_M, 4_CSE_C, 4_CSE_E, 6_CSE_D, 4_AIDS_H, 6_CSBT_I, 4_IT_K, 6_AIDS_G</t>
+  </si>
+  <si>
+    <t>4_IT_L, 4_AIDS_G, 6_CSE_E, 4_CSE_D, 6_CSBS_N, 4_ICT_M, 4_AIDS_F, 4_CSE_A, 6_AIDS_H, 6_CSE_A, 4_CSBT_I, 6_CSE_B, 4_CSBS_N, 6_CSE_C, 4_CSE_B, 4_IoTA_J, 6_AIDS_F, 6_IoTA_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6_IT_L, 6_IT_K, 4_AIDS_G, 6_ICT_M, 4_CSE_D, 6_CSBS_N, 4_ICT_M, 4_AIDS_F, 4_CSE_E, 6_CSE_A, 4_CSBS_N, 6_CSBT_I, 4_IT_K, 6_CSE_C, 6_AIDS_F</t>
+  </si>
+  <si>
+    <t>4_IT_L, 6_CSE_E, 4_CSE_A, 4_CSE_C, 6_AIDS_H, 6_CSE_D, 4_AIDS_H, 4_CSBT_I, 6_CSE_B, 6_AIDS_G, 4_CSE_B, 4_IoTA_J, 6_IoTA_J</t>
   </si>
 </sst>
 </file>
@@ -1319,14 +1319,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="156" style="3" customWidth="1"/>
+    <col min="2" max="2" width="182" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="69.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="3" customWidth="1"/>
@@ -6000,7 +6000,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6008,7 +6008,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>284</v>
@@ -6019,7 +6019,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6027,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>285</v>
@@ -6038,7 +6038,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6046,7 +6046,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>286</v>
@@ -6057,7 +6057,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6065,7 +6065,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>287</v>
@@ -6076,7 +6076,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6084,7 +6084,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>288</v>
@@ -6095,7 +6095,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6103,7 +6103,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>289</v>
@@ -6114,15 +6114,15 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>300</v>
+      <c r="B219" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>290</v>
@@ -6133,7 +6133,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>291</v>
@@ -6152,7 +6152,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6160,7 +6160,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>292</v>
@@ -6171,7 +6171,7 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,7 +6179,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>293</v>
@@ -6190,7 +6190,7 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
